--- a/po_analysis_by_asin/B0D1RLLPTP_po_data.xlsx
+++ b/po_analysis_by_asin/B0D1RLLPTP_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45474</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>40</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45516</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>108</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45544</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>20</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45572</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>58</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45579</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>12</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45586</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>20</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45600</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>84</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45607</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>4</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45474</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>40</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45505</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>108</v>
@@ -563,7 +563,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45536</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>20</v>
@@ -571,7 +571,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>90</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45597</v>
+        <v>45626.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>88</v>

--- a/po_analysis_by_asin/B0D1RLLPTP_po_data.xlsx
+++ b/po_analysis_by_asin/B0D1RLLPTP_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -541,7 +542,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -583,6 +584,271 @@
       </c>
       <c r="B6" t="n">
         <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>63</v>
+      </c>
+      <c r="C2" t="n">
+        <v>19.96951041727689</v>
+      </c>
+      <c r="D2" t="n">
+        <v>102.9768637564333</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>54</v>
+      </c>
+      <c r="C3" t="n">
+        <v>12.60330858457754</v>
+      </c>
+      <c r="D3" t="n">
+        <v>94.70032429275709</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>47</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.85822061046464</v>
+      </c>
+      <c r="D4" t="n">
+        <v>87.39174757597918</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>40</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1.921906575124653</v>
+      </c>
+      <c r="D5" t="n">
+        <v>79.51168641887963</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>39</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-2.006836898442605</v>
+      </c>
+      <c r="D6" t="n">
+        <v>76.94240365085813</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>37</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-3.895840411031066</v>
+      </c>
+      <c r="D7" t="n">
+        <v>75.63244654030419</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>34</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-3.358880466462753</v>
+      </c>
+      <c r="D8" t="n">
+        <v>74.08746205926995</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>32</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-9.37746211189895</v>
+      </c>
+      <c r="D9" t="n">
+        <v>72.48348259559667</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>31</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-10.59105352362335</v>
+      </c>
+      <c r="D10" t="n">
+        <v>72.96751844099617</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>29</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-16.73847823367074</v>
+      </c>
+      <c r="D11" t="n">
+        <v>69.1593482919817</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>27</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-15.555651361224</v>
+      </c>
+      <c r="D12" t="n">
+        <v>67.61932016673201</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>26</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-16.16252335206938</v>
+      </c>
+      <c r="D13" t="n">
+        <v>66.13559561296762</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>24</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-17.45334573939968</v>
+      </c>
+      <c r="D14" t="n">
+        <v>63.44968177707997</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>22</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-17.03284597789738</v>
+      </c>
+      <c r="D15" t="n">
+        <v>63.07455500636515</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>21</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-20.65613962552042</v>
+      </c>
+      <c r="D16" t="n">
+        <v>63.40055096488815</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>19</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-20.88675234751509</v>
+      </c>
+      <c r="D17" t="n">
+        <v>65.19374144289088</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0D1RLLPTP_po_data.xlsx
+++ b/po_analysis_by_asin/B0D1RLLPTP_po_data.xlsx
@@ -597,7 +597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -616,16 +616,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -634,12 +624,6 @@
       <c r="B2" t="n">
         <v>63</v>
       </c>
-      <c r="C2" t="n">
-        <v>19.96951041727689</v>
-      </c>
-      <c r="D2" t="n">
-        <v>102.9768637564333</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -648,12 +632,6 @@
       <c r="B3" t="n">
         <v>54</v>
       </c>
-      <c r="C3" t="n">
-        <v>12.60330858457754</v>
-      </c>
-      <c r="D3" t="n">
-        <v>94.70032429275709</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -662,12 +640,6 @@
       <c r="B4" t="n">
         <v>47</v>
       </c>
-      <c r="C4" t="n">
-        <v>4.85822061046464</v>
-      </c>
-      <c r="D4" t="n">
-        <v>87.39174757597918</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -676,12 +648,6 @@
       <c r="B5" t="n">
         <v>40</v>
       </c>
-      <c r="C5" t="n">
-        <v>-1.921906575124653</v>
-      </c>
-      <c r="D5" t="n">
-        <v>79.51168641887963</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -690,12 +656,6 @@
       <c r="B6" t="n">
         <v>39</v>
       </c>
-      <c r="C6" t="n">
-        <v>-2.006836898442605</v>
-      </c>
-      <c r="D6" t="n">
-        <v>76.94240365085813</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -704,12 +664,6 @@
       <c r="B7" t="n">
         <v>37</v>
       </c>
-      <c r="C7" t="n">
-        <v>-3.895840411031066</v>
-      </c>
-      <c r="D7" t="n">
-        <v>75.63244654030419</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -718,12 +672,6 @@
       <c r="B8" t="n">
         <v>34</v>
       </c>
-      <c r="C8" t="n">
-        <v>-3.358880466462753</v>
-      </c>
-      <c r="D8" t="n">
-        <v>74.08746205926995</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -732,12 +680,6 @@
       <c r="B9" t="n">
         <v>32</v>
       </c>
-      <c r="C9" t="n">
-        <v>-9.37746211189895</v>
-      </c>
-      <c r="D9" t="n">
-        <v>72.48348259559667</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -746,12 +688,6 @@
       <c r="B10" t="n">
         <v>31</v>
       </c>
-      <c r="C10" t="n">
-        <v>-10.59105352362335</v>
-      </c>
-      <c r="D10" t="n">
-        <v>72.96751844099617</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -760,12 +696,6 @@
       <c r="B11" t="n">
         <v>29</v>
       </c>
-      <c r="C11" t="n">
-        <v>-16.73847823367074</v>
-      </c>
-      <c r="D11" t="n">
-        <v>69.1593482919817</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -774,12 +704,6 @@
       <c r="B12" t="n">
         <v>27</v>
       </c>
-      <c r="C12" t="n">
-        <v>-15.555651361224</v>
-      </c>
-      <c r="D12" t="n">
-        <v>67.61932016673201</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -788,12 +712,6 @@
       <c r="B13" t="n">
         <v>26</v>
       </c>
-      <c r="C13" t="n">
-        <v>-16.16252335206938</v>
-      </c>
-      <c r="D13" t="n">
-        <v>66.13559561296762</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -802,12 +720,6 @@
       <c r="B14" t="n">
         <v>24</v>
       </c>
-      <c r="C14" t="n">
-        <v>-17.45334573939968</v>
-      </c>
-      <c r="D14" t="n">
-        <v>63.44968177707997</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -816,12 +728,6 @@
       <c r="B15" t="n">
         <v>22</v>
       </c>
-      <c r="C15" t="n">
-        <v>-17.03284597789738</v>
-      </c>
-      <c r="D15" t="n">
-        <v>63.07455500636515</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -830,12 +736,6 @@
       <c r="B16" t="n">
         <v>21</v>
       </c>
-      <c r="C16" t="n">
-        <v>-20.65613962552042</v>
-      </c>
-      <c r="D16" t="n">
-        <v>63.40055096488815</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -843,12 +743,6 @@
       </c>
       <c r="B17" t="n">
         <v>19</v>
-      </c>
-      <c r="C17" t="n">
-        <v>-20.88675234751509</v>
-      </c>
-      <c r="D17" t="n">
-        <v>65.19374144289088</v>
       </c>
     </row>
   </sheetData>
